--- a/export.xlsx
+++ b/export.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>kghh</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>fss</t>
+  </si>
+  <si>
+    <t>khkh</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C2"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -415,6 +418,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
